--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -2062,12 +2062,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.65</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2649,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -877,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -915,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -953,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1428</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -991,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1029,26 +801,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1067,26 +839,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1095,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.16</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1133,32 +905,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1181,64 +953,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000182</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城四季金利债券C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1313,26 +1047,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1351,26 +1085,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1389,26 +1123,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1427,22 +1161,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1465,22 +1199,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1503,22 +1237,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1541,22 +1275,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1579,26 +1313,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1617,22 +1351,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2069,7 +1803,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2109,26 +1843,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.2192</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2147,26 +1881,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.2192</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2185,26 +1919,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.2192</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2223,22 +1957,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0871</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2261,22 +1995,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0871</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2299,22 +2033,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.0584</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2337,22 +2071,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>96.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2375,26 +2109,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2413,22 +2147,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2446,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +2201,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2507,26 +2241,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2545,26 +2279,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2583,26 +2317,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2621,26 +2355,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2659,26 +2393,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2697,26 +2431,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>84.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2725,36 +2459,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>96.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2763,32 +2497,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2811,26 +2545,64 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>84.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城四季金利债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2844,128 +2616,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.85</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.65</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.39</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,31 +661,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -682,31 +699,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -720,31 +737,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -758,31 +775,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -796,31 +813,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -834,31 +851,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -872,31 +889,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>诺安全球收益不动产（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +960,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>016278</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>广发美国房地产指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1047,26 +1102,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1085,26 +1140,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1123,26 +1178,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1161,26 +1216,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1199,26 +1254,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1237,26 +1292,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1265,36 +1320,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1303,36 +1358,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1351,26 +1406,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1460,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1445,26 +1500,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1483,26 +1538,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1521,26 +1576,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1559,22 +1614,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1597,22 +1652,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1635,22 +1690,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1673,22 +1728,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.34</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1711,26 +1766,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1749,22 +1804,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1843,22 +1898,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1881,22 +1936,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1919,22 +1974,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1957,22 +2012,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1995,22 +2050,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2033,22 +2088,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.0468</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2071,22 +2126,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2109,26 +2164,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2147,22 +2202,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2175,6 +2230,404 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
+++ b/数据整理/stocks/其他/SPG-西蒙房地产集团公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1028,404 +1405,6 @@
       </c>
       <c r="H11" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.41</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1500,26 +1479,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1538,26 +1517,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1576,26 +1555,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1960</t>
+          <t>0.1325</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1614,26 +1593,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1652,26 +1631,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1690,26 +1669,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1718,36 +1697,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>320017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>诺安全球收益不动产(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1756,36 +1735,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1804,26 +1783,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1837,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1898,26 +1877,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1936,26 +1915,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1974,26 +1953,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.1960</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2012,22 +1991,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2050,22 +2029,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2088,22 +2067,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2126,22 +2105,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.34</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2164,26 +2143,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2202,22 +2181,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2296,22 +2275,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2334,22 +2313,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2372,22 +2351,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2410,22 +2389,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2448,22 +2427,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0835</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2486,22 +2465,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.0468</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2524,22 +2503,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2562,26 +2541,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2600,22 +2579,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2628,6 +2607,404 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
